--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value673.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value673.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.633713187425522</v>
+        <v>1.877458214759827</v>
       </c>
       <c r="B1">
-        <v>1.774889146187239</v>
+        <v>2.239890336990356</v>
       </c>
       <c r="C1">
-        <v>2.069123254988373</v>
+        <v>2.350868940353394</v>
       </c>
       <c r="D1">
-        <v>3.487099899193845</v>
+        <v>2.881145477294922</v>
       </c>
       <c r="E1">
-        <v>1.458698142166386</v>
+        <v>2.267235517501831</v>
       </c>
     </row>
   </sheetData>
